--- a/test/test_singlezone/steady_03/正解値03.xlsx
+++ b/test/test_singlezone/steady_03/正解値03.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\satoh\Documents\sourcetree\heat_load_calc\test\test_singlezone\steady_03\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://satohercom-my.sharepoint.com/personal/satoh_satoh-er_com/Documents/users/sourcetree/heat_load_calc/test/test_singlezone/steady_03/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7EBF175-F28F-4B03-B796-052993DCD781}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{B7EBF175-F28F-4B03-B796-052993DCD781}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3F035B8D-AE9B-4A42-AC76-4AEE860386B9}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{45A1B7A6-7409-41F9-BB10-4729754C71E5}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{45A1B7A6-7409-41F9-BB10-4729754C71E5}"/>
   </bookViews>
   <sheets>
     <sheet name="熱伝達率" sheetId="2" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="68">
   <si>
     <t>対流熱伝達率</t>
     <rPh sb="0" eb="2">
@@ -309,13 +309,6 @@
     </rPh>
     <rPh sb="11" eb="13">
       <t>タイリュウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>作用温度</t>
-    <rPh sb="0" eb="4">
-      <t>サヨウオンド</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1157,24 +1150,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1185,7 +1166,7 @@
     <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1">
@@ -1212,6 +1193,12 @@
     <xf numFmtId="180" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1223,12 +1210,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1357,9 +1338,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 テーマ">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1397,7 +1378,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1503,7 +1484,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1645,7 +1626,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1661,226 +1642,226 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="19" style="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.375" style="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.875" style="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.25" style="11" customWidth="1"/>
-    <col min="5" max="5" width="8.75" style="11"/>
-    <col min="6" max="6" width="12.875" style="11" customWidth="1"/>
-    <col min="7" max="16384" width="8.75" style="11"/>
+    <col min="1" max="1" width="19" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.375" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.875" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.25" style="7" customWidth="1"/>
+    <col min="5" max="5" width="8.75" style="7"/>
+    <col min="6" max="6" width="12.875" style="7" customWidth="1"/>
+    <col min="7" max="16384" width="8.75" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A1" s="10"/>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10" t="s">
+      <c r="A1" s="6"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="24" x14ac:dyDescent="0.4">
+      <c r="A2" s="6"/>
+      <c r="B2" s="6" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" ht="24" x14ac:dyDescent="0.4">
-      <c r="A2" s="10"/>
-      <c r="B2" s="10" t="s">
+      <c r="C2" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="D2" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="E2" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="F2" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="G2" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="G2" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="H2" s="13">
+      <c r="H2" s="9">
         <v>1.199999999980782</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A3" s="10" t="str">
+      <c r="A3" s="6" t="str">
         <f>正解値!$H20</f>
         <v>壁</v>
       </c>
-      <c r="B3" s="14">
+      <c r="B3" s="10">
         <f>正解値!$J20</f>
         <v>1</v>
       </c>
-      <c r="C3" s="15">
+      <c r="C3" s="11">
         <f t="shared" ref="C3:C8" si="0">B3/$B$9</f>
         <v>0.16666666666666666</v>
       </c>
-      <c r="D3" s="16">
+      <c r="D3" s="12">
         <f t="shared" ref="D3:D8" si="1">0.5*(1-SIGN(1-4*C3/$H$2)*SQRT(ABS(1-4*C3/$H$2)))</f>
         <v>0.16666666667000313</v>
       </c>
-      <c r="E3" s="10">
+      <c r="E3" s="6">
         <f>正解値!$K20</f>
         <v>0.9</v>
       </c>
-      <c r="F3" s="16">
+      <c r="F3" s="12">
         <f t="shared" ref="F3:F8" si="2">E3/(1-E3*D3)*4*0.0000000567*($H$3+273.15)^3</f>
         <v>6.0497346947957293</v>
       </c>
-      <c r="G3" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="H3" s="10">
+      <c r="G3" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="H3" s="6">
         <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A4" s="10" t="str">
+      <c r="A4" s="6" t="str">
         <f>正解値!$H21</f>
         <v>壁</v>
       </c>
-      <c r="B4" s="14">
+      <c r="B4" s="10">
         <f>正解値!$J21</f>
         <v>1</v>
       </c>
-      <c r="C4" s="15">
+      <c r="C4" s="11">
         <f t="shared" si="0"/>
         <v>0.16666666666666666</v>
       </c>
-      <c r="D4" s="16">
+      <c r="D4" s="12">
         <f t="shared" si="1"/>
         <v>0.16666666667000313</v>
       </c>
-      <c r="E4" s="10">
+      <c r="E4" s="6">
         <f>正解値!$K21</f>
         <v>0.9</v>
       </c>
-      <c r="F4" s="16">
+      <c r="F4" s="12">
         <f t="shared" si="2"/>
         <v>6.0497346947957293</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A5" s="10" t="str">
+      <c r="A5" s="6" t="str">
         <f>正解値!$H22</f>
         <v>壁</v>
       </c>
-      <c r="B5" s="14">
+      <c r="B5" s="10">
         <f>正解値!$J22</f>
         <v>1</v>
       </c>
-      <c r="C5" s="15">
+      <c r="C5" s="11">
         <f t="shared" si="0"/>
         <v>0.16666666666666666</v>
       </c>
-      <c r="D5" s="16">
+      <c r="D5" s="12">
         <f t="shared" si="1"/>
         <v>0.16666666667000313</v>
       </c>
-      <c r="E5" s="10">
+      <c r="E5" s="6">
         <f>正解値!$K22</f>
         <v>0.9</v>
       </c>
-      <c r="F5" s="16">
+      <c r="F5" s="12">
         <f t="shared" si="2"/>
         <v>6.0497346947957293</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A6" s="10" t="str">
+      <c r="A6" s="6" t="str">
         <f>正解値!$H23</f>
         <v>壁</v>
       </c>
-      <c r="B6" s="14">
+      <c r="B6" s="10">
         <f>正解値!$J23</f>
         <v>1</v>
       </c>
-      <c r="C6" s="15">
+      <c r="C6" s="11">
         <f t="shared" si="0"/>
         <v>0.16666666666666666</v>
       </c>
-      <c r="D6" s="16">
+      <c r="D6" s="12">
         <f t="shared" si="1"/>
         <v>0.16666666667000313</v>
       </c>
-      <c r="E6" s="10">
+      <c r="E6" s="6">
         <f>正解値!$K23</f>
         <v>0.9</v>
       </c>
-      <c r="F6" s="16">
+      <c r="F6" s="12">
         <f t="shared" si="2"/>
         <v>6.0497346947957293</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A7" s="10" t="str">
+      <c r="A7" s="6" t="str">
         <f>正解値!$H24</f>
         <v>床</v>
       </c>
-      <c r="B7" s="14">
+      <c r="B7" s="10">
         <f>正解値!$J24</f>
         <v>1</v>
       </c>
-      <c r="C7" s="15">
+      <c r="C7" s="11">
         <f t="shared" si="0"/>
         <v>0.16666666666666666</v>
       </c>
-      <c r="D7" s="16">
+      <c r="D7" s="12">
         <f t="shared" si="1"/>
         <v>0.16666666667000313</v>
       </c>
-      <c r="E7" s="10">
+      <c r="E7" s="6">
         <f>正解値!$K24</f>
         <v>0.9</v>
       </c>
-      <c r="F7" s="16">
+      <c r="F7" s="12">
         <f t="shared" si="2"/>
         <v>6.0497346947957293</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A8" s="10" t="str">
+      <c r="A8" s="6" t="str">
         <f>正解値!$H25</f>
         <v>屋根</v>
       </c>
-      <c r="B8" s="14">
+      <c r="B8" s="10">
         <f>正解値!$J25</f>
         <v>1</v>
       </c>
-      <c r="C8" s="15">
+      <c r="C8" s="11">
         <f t="shared" si="0"/>
         <v>0.16666666666666666</v>
       </c>
-      <c r="D8" s="16">
+      <c r="D8" s="12">
         <f t="shared" si="1"/>
         <v>0.16666666667000313</v>
       </c>
-      <c r="E8" s="10">
+      <c r="E8" s="6">
         <f>正解値!$K25</f>
         <v>0.9</v>
       </c>
-      <c r="F8" s="16">
+      <c r="F8" s="12">
         <f t="shared" si="2"/>
         <v>6.0497346947957293</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A9" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="B9" s="14">
+      <c r="A9" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="B9" s="10">
         <f>SUM(B3:B8)</f>
         <v>6</v>
       </c>
-      <c r="C9" s="10"/>
-      <c r="D9" s="17">
+      <c r="C9" s="6"/>
+      <c r="D9" s="13">
         <f>SUM(D3:D8)</f>
         <v>1.0000000000200189</v>
       </c>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -1894,8 +1875,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{215416CE-EF7A-442F-A723-10341F25AD0E}">
   <dimension ref="A1:Y25"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="M7" workbookViewId="0">
-      <selection activeCell="Y20" sqref="Y20:Y25"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="S19" sqref="S19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1921,80 +1902,80 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="18" spans="1:25" x14ac:dyDescent="0.4">
-      <c r="A18" s="18" t="s">
+      <c r="A18" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="B18" s="18"/>
-      <c r="C18" s="18"/>
+      <c r="B18" s="16"/>
+      <c r="C18" s="16"/>
       <c r="D18" s="2" t="s">
         <v>13</v>
       </c>
@@ -2005,60 +1986,60 @@
         <v>15</v>
       </c>
       <c r="H18" s="1"/>
-      <c r="I18" s="5" t="s">
+      <c r="I18" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="L18" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M18" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="N18" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="O18" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="P18" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q18" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="R18" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="S18" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="T18" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="U18" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="V18" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="J18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K18" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="L18" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="M18" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="N18" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="O18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q18" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="R18" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="S18" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="T18" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="U18" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="V18" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="W18" s="5" t="s">
+      <c r="W18" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="X18" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="X18" s="22" t="s">
-        <v>66</v>
-      </c>
-      <c r="Y18" s="5" t="s">
-        <v>68</v>
+      <c r="Y18" s="2" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="19" spans="1:25" x14ac:dyDescent="0.4">
-      <c r="A19" s="19" t="s">
+      <c r="A19" s="17" t="s">
         <v>16</v>
       </c>
       <c r="B19" s="2" t="s">
@@ -2075,59 +2056,59 @@
       </c>
       <c r="F19" s="1"/>
       <c r="H19" s="1"/>
-      <c r="I19" s="3" t="s">
+      <c r="I19" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="J19" s="3" t="s">
+      <c r="J19" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="K19" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="L19" s="3" t="s">
+      <c r="K19" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="L19" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="M19" s="3" t="s">
+      <c r="M19" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="N19" s="3" t="s">
+      <c r="N19" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="O19" s="3" t="s">
+      <c r="O19" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="P19" s="3" t="s">
+      <c r="P19" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="Q19" s="3" t="s">
+      <c r="Q19" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="R19" s="5" t="s">
+      <c r="R19" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="S19" s="3" t="s">
+      <c r="S19" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="T19" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="U19" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="V19" s="3" t="s">
-        <v>31</v>
+      <c r="T19" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="U19" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="V19" s="2" t="s">
+        <v>30</v>
       </c>
       <c r="W19" s="1"/>
-      <c r="X19" s="22" t="s">
-        <v>67</v>
-      </c>
-      <c r="Y19" s="5" t="s">
-        <v>67</v>
+      <c r="X19" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="Y19" s="2" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="20" spans="1:25" x14ac:dyDescent="0.4">
-      <c r="A20" s="21"/>
-      <c r="B20" s="19" t="s">
+      <c r="A20" s="19"/>
+      <c r="B20" s="17" t="s">
         <v>19</v>
       </c>
       <c r="C20" s="1" t="s">
@@ -2141,8 +2122,8 @@
         <v>7</v>
       </c>
       <c r="F20" s="1"/>
-      <c r="H20" s="3" t="s">
-        <v>42</v>
+      <c r="H20" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="I20" s="1">
         <f>$D$19</f>
@@ -2176,7 +2157,7 @@
         <f t="shared" ref="Q20:Q25" si="1">1/(1/$M20+$P20+$O20)</f>
         <v>2.3048160516241385</v>
       </c>
-      <c r="R20" s="9">
+      <c r="R20" s="5">
         <f t="shared" ref="R20:R25" ca="1" si="2">$I20+($S20-$I20)*SUM($O20,$P20)/SUM($O20,$P20,$N20)</f>
         <v>1.7770816482136145</v>
       </c>
@@ -2192,7 +2173,7 @@
         <f t="shared" ref="U20:U25" ca="1" si="5">($D$24-$R20)*$L20</f>
         <v>0.16587456466722383</v>
       </c>
-      <c r="V20" s="7">
+      <c r="V20" s="3">
         <f t="shared" ref="V20:V24" ca="1" si="6">SUM($T20,$U20)</f>
         <v>16.915925628102801</v>
       </c>
@@ -2200,7 +2181,7 @@
         <f>(1-$W$24)*J20/SUM($J$20:$J$23,$J$25)</f>
         <v>0.11000000000000001</v>
       </c>
-      <c r="X20" s="23">
+      <c r="X20" s="15">
         <f ca="1">SUMPRODUCT(R20:R25,W20:W25)</f>
         <v>1.8231447043143494</v>
       </c>
@@ -2210,8 +2191,8 @@
       </c>
     </row>
     <row r="21" spans="1:25" x14ac:dyDescent="0.4">
-      <c r="A21" s="20"/>
-      <c r="B21" s="20"/>
+      <c r="A21" s="18"/>
+      <c r="B21" s="18"/>
       <c r="C21" s="1" t="s">
         <v>1</v>
       </c>
@@ -2222,8 +2203,8 @@
         <v>2</v>
       </c>
       <c r="F21" s="1"/>
-      <c r="H21" s="4" t="s">
-        <v>42</v>
+      <c r="H21" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="I21" s="1">
         <f t="shared" ref="I21:I25" si="7">$D$19</f>
@@ -2257,7 +2238,7 @@
         <f t="shared" si="1"/>
         <v>2.3048160516241385</v>
       </c>
-      <c r="R21" s="9">
+      <c r="R21" s="5">
         <f t="shared" ca="1" si="2"/>
         <v>1.7770816482136145</v>
       </c>
@@ -2273,7 +2254,7 @@
         <f t="shared" ca="1" si="5"/>
         <v>0.16587456466722383</v>
       </c>
-      <c r="V21" s="7">
+      <c r="V21" s="3">
         <f t="shared" ca="1" si="6"/>
         <v>16.915925628102801</v>
       </c>
@@ -2287,25 +2268,25 @@
       </c>
     </row>
     <row r="22" spans="1:25" x14ac:dyDescent="0.4">
-      <c r="A22" s="18" t="s">
+      <c r="A22" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B22" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C22" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="D22" s="1">
         <f ca="1">SUM($T$20:$T$25)</f>
         <v>100</v>
       </c>
-      <c r="E22" s="3" t="s">
+      <c r="E22" s="2" t="s">
         <v>2</v>
       </c>
       <c r="F22" s="1"/>
-      <c r="H22" s="4" t="s">
-        <v>42</v>
+      <c r="H22" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="I22" s="1">
         <f t="shared" si="7"/>
@@ -2339,7 +2320,7 @@
         <f t="shared" si="1"/>
         <v>2.3048160516241385</v>
       </c>
-      <c r="R22" s="9">
+      <c r="R22" s="5">
         <f t="shared" ca="1" si="2"/>
         <v>1.7770816482136145</v>
       </c>
@@ -2355,7 +2336,7 @@
         <f t="shared" ca="1" si="5"/>
         <v>0.16587456466722383</v>
       </c>
-      <c r="V22" s="7">
+      <c r="V22" s="3">
         <f t="shared" ca="1" si="6"/>
         <v>16.915925628102801</v>
       </c>
@@ -2369,14 +2350,14 @@
       </c>
     </row>
     <row r="23" spans="1:25" x14ac:dyDescent="0.4">
-      <c r="A23" s="18"/>
-      <c r="B23" s="19" t="s">
+      <c r="A23" s="16"/>
+      <c r="B23" s="17" t="s">
         <v>20</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D23" s="8">
+      <c r="D23" s="4">
         <f ca="1">$D$23+($D$21-$D$22)/$D$20</f>
         <v>7.2848391495779214</v>
       </c>
@@ -2384,8 +2365,8 @@
         <v>9</v>
       </c>
       <c r="F23" s="1"/>
-      <c r="H23" s="6" t="s">
-        <v>42</v>
+      <c r="H23" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="I23" s="1">
         <f t="shared" si="7"/>
@@ -2419,7 +2400,7 @@
         <f t="shared" si="1"/>
         <v>2.3048160516241385</v>
       </c>
-      <c r="R23" s="9">
+      <c r="R23" s="5">
         <f t="shared" ca="1" si="2"/>
         <v>1.7770816482136145</v>
       </c>
@@ -2435,7 +2416,7 @@
         <f t="shared" ca="1" si="5"/>
         <v>0.16587456466722383</v>
       </c>
-      <c r="V23" s="7">
+      <c r="V23" s="3">
         <f t="shared" ca="1" si="6"/>
         <v>16.915925628102801</v>
       </c>
@@ -2449,10 +2430,10 @@
       </c>
     </row>
     <row r="24" spans="1:25" x14ac:dyDescent="0.4">
-      <c r="A24" s="18"/>
-      <c r="B24" s="20"/>
+      <c r="A24" s="16"/>
+      <c r="B24" s="18"/>
       <c r="C24" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D24" s="1">
         <f ca="1">SUMPRODUCT($L$20:$L$25,$J$20:$J$25,$R$20:$R$25)/SUMPRODUCT($L$20:$L$25,$J$20:$J$25)</f>
@@ -2462,8 +2443,8 @@
         <v>9</v>
       </c>
       <c r="F24" s="1"/>
-      <c r="H24" s="6" t="s">
-        <v>37</v>
+      <c r="H24" s="2" t="s">
+        <v>36</v>
       </c>
       <c r="I24" s="1">
         <f t="shared" si="7"/>
@@ -2497,7 +2478,7 @@
         <f t="shared" si="1"/>
         <v>2.2531639669610057</v>
       </c>
-      <c r="R24" s="9">
+      <c r="R24" s="5">
         <f t="shared" ca="1" si="2"/>
         <v>1.8593371055363552</v>
       </c>
@@ -2513,7 +2494,7 @@
         <f t="shared" ca="1" si="5"/>
         <v>-0.33174912933445033</v>
       </c>
-      <c r="V24" s="7">
+      <c r="V24" s="3">
         <f t="shared" ca="1" si="6"/>
         <v>16.16814874379439</v>
       </c>
@@ -2526,8 +2507,8 @@
       </c>
     </row>
     <row r="25" spans="1:25" x14ac:dyDescent="0.4">
-      <c r="H25" s="6" t="s">
-        <v>36</v>
+      <c r="H25" s="2" t="s">
+        <v>35</v>
       </c>
       <c r="I25" s="1">
         <f t="shared" si="7"/>
@@ -2561,7 +2542,7 @@
         <f t="shared" si="1"/>
         <v>2.2531639669610057</v>
       </c>
-      <c r="R25" s="9">
+      <c r="R25" s="5">
         <f t="shared" ca="1" si="2"/>
         <v>1.8593371055363552</v>
       </c>
@@ -2577,7 +2558,7 @@
         <f t="shared" ca="1" si="5"/>
         <v>-0.33174912933445033</v>
       </c>
-      <c r="V25" s="7">
+      <c r="V25" s="3">
         <f ca="1">SUM($T25,$U25)</f>
         <v>16.16814874379439</v>
       </c>
